--- a/Results/Test Case/Test Case Analysis.xlsx
+++ b/Results/Test Case/Test Case Analysis.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +454,7 @@
         <v>164</v>
       </c>
       <c r="F2" s="2">
-        <f xml:space="preserve"> ((B2)/E2) *100</f>
+        <f t="shared" ref="F2:F11" si="0" xml:space="preserve"> ((B2)/E2) *100</f>
         <v>100</v>
       </c>
     </row>
@@ -472,11 +472,11 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">SUM(B3:D3)</f>
+        <f t="shared" ref="E3:E11" si="1">SUM(B3:D3)</f>
         <v>164</v>
       </c>
       <c r="F3" s="2">
-        <f xml:space="preserve"> ((B3)/E3) *100</f>
+        <f t="shared" si="0"/>
         <v>71.341463414634148</v>
       </c>
     </row>
@@ -494,11 +494,11 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="F4" s="2">
-        <f xml:space="preserve"> ((B4)/E4) *100</f>
+        <f t="shared" si="0"/>
         <v>65.243902439024396</v>
       </c>
     </row>
@@ -516,11 +516,11 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="F5" s="2">
-        <f xml:space="preserve"> ((B5)/E5) *100</f>
+        <f t="shared" si="0"/>
         <v>75.609756097560975</v>
       </c>
     </row>
@@ -538,11 +538,11 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="F6" s="2">
-        <f xml:space="preserve"> ((B6)/E6) *100</f>
+        <f t="shared" si="0"/>
         <v>69.512195121951208</v>
       </c>
     </row>
@@ -560,11 +560,11 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="F7" s="2">
-        <f xml:space="preserve"> ((B7)/E7) *100</f>
+        <f t="shared" si="0"/>
         <v>71.951219512195124</v>
       </c>
     </row>
@@ -582,11 +582,11 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="F8" s="2">
-        <f xml:space="preserve"> ((B8)/E8) *100</f>
+        <f t="shared" si="0"/>
         <v>87.195121951219505</v>
       </c>
     </row>
@@ -604,11 +604,11 @@
         <v>59</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="F9" s="2">
-        <f xml:space="preserve"> ((B9)/E9) *100</f>
+        <f t="shared" si="0"/>
         <v>41.463414634146339</v>
       </c>
     </row>
@@ -617,21 +617,21 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>77</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="F10" s="2">
-        <f xml:space="preserve"> ((B10)/E10) *100</f>
-        <v>41.463414634146339</v>
+        <f t="shared" si="0"/>
+        <v>40.853658536585364</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,11 +648,11 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="F11" s="2">
-        <f xml:space="preserve"> ((B11)/E11) *100</f>
+        <f t="shared" si="0"/>
         <v>53.048780487804883</v>
       </c>
     </row>
